--- a/contratos/contratos-1-2016.xlsx
+++ b/contratos/contratos-1-2016.xlsx
@@ -715,7 +715,7 @@
     <t>BURGOS DANIEL RAUL</t>
   </si>
   <si>
-    <t>FERNANDEZ, MARIO HUGO</t>
+    <t>FERNANDEZ. MARIO HUGO</t>
   </si>
   <si>
     <t>FIOROTTO ALBERTO M Y REY CESAR A S.R.L.</t>
@@ -802,7 +802,7 @@
     <t>GOMEZ BORDON ALCIDES OSVALDO</t>
   </si>
   <si>
-    <t>MONROY, AGUSTIN ALEJANDRO</t>
+    <t>MONROY. AGUSTIN ALEJANDRO</t>
   </si>
   <si>
     <t>LEMOS ALFREDO GUILLERMO</t>
@@ -865,7 +865,7 @@
     <t>GALLICET OSCAR MARCELO</t>
   </si>
   <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>CIPAR INGENIERIA S.R.L.</t>
@@ -919,7 +919,7 @@
     <t>LEGUIZAMON ALCIDES Y GALVARINI EDUARDO S.H.</t>
   </si>
   <si>
-    <t>RICCOTTI, MARIANA EDITH</t>
+    <t>RICCOTTI. MARIANA EDITH</t>
   </si>
   <si>
     <t>BONNIN MARTIN ANIBAL</t>
@@ -997,7 +997,7 @@
     <t>LEON BANCHIK S.A.</t>
   </si>
   <si>
-    <t>ALBIZZATTI, PABLO MARTIN Y FULINI, SERGIO RUBEN</t>
+    <t>ALBIZZATTI. PABLO MARTIN Y FULINI. SERGIO RUBEN</t>
   </si>
   <si>
     <t>CASA SPAIS S.A.</t>
@@ -1303,7 +1303,7 @@
     <t>GENESIS</t>
   </si>
   <si>
-    <t>MERCANZINI, GASTON ARIEL</t>
+    <t>MERCANZINI. GASTON ARIEL</t>
   </si>
   <si>
     <t>GEO SONIDO</t>
@@ -1477,640 +1477,640 @@
     <t>5</t>
   </si>
   <si>
-    <t>36.550,00</t>
-  </si>
-  <si>
-    <t>4.800,00</t>
-  </si>
-  <si>
-    <t>33.740,00</t>
-  </si>
-  <si>
-    <t>112.000,00</t>
-  </si>
-  <si>
-    <t>686.309,00</t>
-  </si>
-  <si>
-    <t>109.000,00</t>
-  </si>
-  <si>
-    <t>12.800,00</t>
-  </si>
-  <si>
-    <t>2.049,00</t>
-  </si>
-  <si>
-    <t>210.733,60</t>
-  </si>
-  <si>
-    <t>120.766,57</t>
-  </si>
-  <si>
-    <t>6.145,11</t>
-  </si>
-  <si>
-    <t>530,00</t>
-  </si>
-  <si>
-    <t>350,00</t>
-  </si>
-  <si>
-    <t>222.586,40</t>
-  </si>
-  <si>
-    <t>98.508,39</t>
-  </si>
-  <si>
-    <t>15.480,00</t>
-  </si>
-  <si>
-    <t>1.624,00</t>
-  </si>
-  <si>
-    <t>2.552,00</t>
-  </si>
-  <si>
-    <t>16.307,02</t>
-  </si>
-  <si>
-    <t>10.959,73</t>
-  </si>
-  <si>
-    <t>2.000,00</t>
-  </si>
-  <si>
-    <t>33.020,00</t>
-  </si>
-  <si>
-    <t>800,00</t>
-  </si>
-  <si>
-    <t>3.060,00</t>
-  </si>
-  <si>
-    <t>136.871,49</t>
-  </si>
-  <si>
-    <t>329,40</t>
-  </si>
-  <si>
-    <t>1.080,00</t>
-  </si>
-  <si>
-    <t>25.063,49</t>
-  </si>
-  <si>
-    <t>328,83</t>
-  </si>
-  <si>
-    <t>2.365,00</t>
-  </si>
-  <si>
-    <t>2.175,54</t>
-  </si>
-  <si>
-    <t>834,00</t>
-  </si>
-  <si>
-    <t>1.320,22</t>
-  </si>
-  <si>
-    <t>840,00</t>
-  </si>
-  <si>
-    <t>5.533,98</t>
-  </si>
-  <si>
-    <t>132,06</t>
-  </si>
-  <si>
-    <t>7.661,40</t>
-  </si>
-  <si>
-    <t>1.055,59</t>
-  </si>
-  <si>
-    <t>18.646,00</t>
-  </si>
-  <si>
-    <t>16.012,51</t>
-  </si>
-  <si>
-    <t>25.203,99</t>
-  </si>
-  <si>
-    <t>10.715,99</t>
-  </si>
-  <si>
-    <t>685,00</t>
-  </si>
-  <si>
-    <t>194,10</t>
-  </si>
-  <si>
-    <t>256,50</t>
-  </si>
-  <si>
-    <t>1.229,28</t>
-  </si>
-  <si>
-    <t>180,00</t>
-  </si>
-  <si>
-    <t>483,91</t>
-  </si>
-  <si>
-    <t>138,50</t>
-  </si>
-  <si>
-    <t>220,00</t>
-  </si>
-  <si>
-    <t>144.148,04</t>
-  </si>
-  <si>
-    <t>2.400,00</t>
-  </si>
-  <si>
-    <t>8.461,00</t>
-  </si>
-  <si>
-    <t>750,00</t>
-  </si>
-  <si>
-    <t>455,40</t>
-  </si>
-  <si>
-    <t>506,31</t>
-  </si>
-  <si>
-    <t>5.437,89</t>
-  </si>
-  <si>
-    <t>2.090,74</t>
-  </si>
-  <si>
-    <t>909,65</t>
-  </si>
-  <si>
-    <t>2.856,00</t>
-  </si>
-  <si>
-    <t>2.215,00</t>
-  </si>
-  <si>
-    <t>5.348,00</t>
-  </si>
-  <si>
-    <t>15.400,00</t>
-  </si>
-  <si>
-    <t>48.000,00</t>
-  </si>
-  <si>
-    <t>16.130,00</t>
-  </si>
-  <si>
-    <t>52.468,00</t>
-  </si>
-  <si>
-    <t>1.871,40</t>
-  </si>
-  <si>
-    <t>4.075,00</t>
-  </si>
-  <si>
-    <t>4.642,00</t>
-  </si>
-  <si>
-    <t>1.208,62</t>
-  </si>
-  <si>
-    <t>4.408,30</t>
-  </si>
-  <si>
-    <t>2.387,06</t>
-  </si>
-  <si>
-    <t>128,00</t>
-  </si>
-  <si>
-    <t>15.467,00</t>
-  </si>
-  <si>
-    <t>281.016,60</t>
-  </si>
-  <si>
-    <t>9.740,64</t>
-  </si>
-  <si>
-    <t>850,00</t>
-  </si>
-  <si>
-    <t>4.000,00</t>
-  </si>
-  <si>
-    <t>600,00</t>
-  </si>
-  <si>
-    <t>87.900,00</t>
-  </si>
-  <si>
-    <t>11.700,00</t>
-  </si>
-  <si>
-    <t>400,00</t>
-  </si>
-  <si>
-    <t>1.092,00</t>
-  </si>
-  <si>
-    <t>10.680,00</t>
-  </si>
-  <si>
-    <t>13.296,00</t>
-  </si>
-  <si>
-    <t>100,00</t>
-  </si>
-  <si>
-    <t>500,00</t>
-  </si>
-  <si>
-    <t>44.310,00</t>
-  </si>
-  <si>
-    <t>24.340,00</t>
-  </si>
-  <si>
-    <t>3.000,00</t>
-  </si>
-  <si>
-    <t>7.500,00</t>
-  </si>
-  <si>
-    <t>5.590,00</t>
-  </si>
-  <si>
-    <t>1.067,00</t>
-  </si>
-  <si>
-    <t>12.768,00</t>
-  </si>
-  <si>
-    <t>1.400,00</t>
-  </si>
-  <si>
-    <t>278,00</t>
-  </si>
-  <si>
-    <t>375,00</t>
-  </si>
-  <si>
-    <t>9.393,00</t>
-  </si>
-  <si>
-    <t>1.300,00</t>
-  </si>
-  <si>
-    <t>7.020,00</t>
-  </si>
-  <si>
-    <t>1.124,28</t>
-  </si>
-  <si>
-    <t>391.178,31</t>
-  </si>
-  <si>
-    <t>56.835,34</t>
-  </si>
-  <si>
-    <t>40.912,00</t>
-  </si>
-  <si>
-    <t>5.131,90</t>
-  </si>
-  <si>
-    <t>17.277,75</t>
-  </si>
-  <si>
-    <t>2.160,00</t>
-  </si>
-  <si>
-    <t>7.940,00</t>
-  </si>
-  <si>
-    <t>1.489,00</t>
-  </si>
-  <si>
-    <t>680,00</t>
-  </si>
-  <si>
-    <t>8.628,50</t>
-  </si>
-  <si>
-    <t>1.159,00</t>
-  </si>
-  <si>
-    <t>785,00</t>
-  </si>
-  <si>
-    <t>5.281,00</t>
-  </si>
-  <si>
-    <t>31.989,94</t>
-  </si>
-  <si>
-    <t>3.270,50</t>
-  </si>
-  <si>
-    <t>560,00</t>
-  </si>
-  <si>
-    <t>5.546,00</t>
-  </si>
-  <si>
-    <t>480,00</t>
-  </si>
-  <si>
-    <t>5.220,00</t>
-  </si>
-  <si>
-    <t>20.337,00</t>
-  </si>
-  <si>
-    <t>917,00</t>
-  </si>
-  <si>
-    <t>486,00</t>
-  </si>
-  <si>
-    <t>98,45</t>
-  </si>
-  <si>
-    <t>2.650,00</t>
-  </si>
-  <si>
-    <t>6.178,98</t>
-  </si>
-  <si>
-    <t>89.000,00</t>
-  </si>
-  <si>
-    <t>25.200,00</t>
-  </si>
-  <si>
-    <t>8.600,00</t>
-  </si>
-  <si>
-    <t>130.000,00</t>
-  </si>
-  <si>
-    <t>8.500,00</t>
-  </si>
-  <si>
-    <t>1.950,00</t>
-  </si>
-  <si>
-    <t>9.000,00</t>
-  </si>
-  <si>
-    <t>9.500,00</t>
-  </si>
-  <si>
-    <t>614.477,00</t>
-  </si>
-  <si>
-    <t>11.600,00</t>
-  </si>
-  <si>
-    <t>313,00</t>
-  </si>
-  <si>
-    <t>9,00</t>
-  </si>
-  <si>
-    <t>465.525,48</t>
-  </si>
-  <si>
-    <t>101.776,96</t>
-  </si>
-  <si>
-    <t>138.342,52</t>
-  </si>
-  <si>
-    <t>2.300,00</t>
-  </si>
-  <si>
-    <t>1.500,00</t>
-  </si>
-  <si>
-    <t>3.146,00</t>
-  </si>
-  <si>
-    <t>1.800,00</t>
-  </si>
-  <si>
-    <t>1.600,00</t>
-  </si>
-  <si>
-    <t>3.600,00</t>
-  </si>
-  <si>
-    <t>5.665,29</t>
-  </si>
-  <si>
-    <t>5.540,00</t>
-  </si>
-  <si>
-    <t>2.554,00</t>
-  </si>
-  <si>
-    <t>6.140,00</t>
-  </si>
-  <si>
-    <t>96.000,00</t>
-  </si>
-  <si>
-    <t>11.500,00</t>
-  </si>
-  <si>
-    <t>5.070,00</t>
-  </si>
-  <si>
-    <t>8.667,50</t>
-  </si>
-  <si>
-    <t>96,00</t>
-  </si>
-  <si>
-    <t>360,00</t>
-  </si>
-  <si>
-    <t>2.787,80</t>
-  </si>
-  <si>
-    <t>9.980,00</t>
-  </si>
-  <si>
-    <t>5.950,00</t>
-  </si>
-  <si>
-    <t>3.322,95</t>
-  </si>
-  <si>
-    <t>200,00</t>
-  </si>
-  <si>
-    <t>85,00</t>
-  </si>
-  <si>
-    <t>4.539,54</t>
-  </si>
-  <si>
-    <t>9.848,80</t>
-  </si>
-  <si>
-    <t>3.885,57</t>
-  </si>
-  <si>
-    <t>780,00</t>
-  </si>
-  <si>
-    <t>8.447,16</t>
-  </si>
-  <si>
-    <t>328,00</t>
-  </si>
-  <si>
-    <t>225,15</t>
-  </si>
-  <si>
-    <t>1.977,63</t>
-  </si>
-  <si>
-    <t>13.201,17</t>
-  </si>
-  <si>
-    <t>123,60</t>
-  </si>
-  <si>
-    <t>354,00</t>
-  </si>
-  <si>
-    <t>9.380,50</t>
-  </si>
-  <si>
-    <t>13.806,00</t>
-  </si>
-  <si>
-    <t>3.186,30</t>
-  </si>
-  <si>
-    <t>1.467,00</t>
-  </si>
-  <si>
-    <t>176,80</t>
-  </si>
-  <si>
-    <t>34.140,17</t>
-  </si>
-  <si>
-    <t>19.210,00</t>
-  </si>
-  <si>
-    <t>6.000,00</t>
-  </si>
-  <si>
-    <t>1.007,71</t>
-  </si>
-  <si>
-    <t>20.300,00</t>
-  </si>
-  <si>
-    <t>4.820,00</t>
-  </si>
-  <si>
-    <t>198.000,00</t>
-  </si>
-  <si>
-    <t>118.000,00</t>
-  </si>
-  <si>
-    <t>203.500,00</t>
-  </si>
-  <si>
-    <t>138.780,00</t>
-  </si>
-  <si>
-    <t>260.606,00</t>
-  </si>
-  <si>
-    <t>32.500,00</t>
-  </si>
-  <si>
-    <t>27.000,00</t>
-  </si>
-  <si>
-    <t>235.620,00</t>
-  </si>
-  <si>
-    <t>377.044,00</t>
-  </si>
-  <si>
-    <t>220.000,00</t>
-  </si>
-  <si>
-    <t>52.000,00</t>
-  </si>
-  <si>
-    <t>57.700,00</t>
-  </si>
-  <si>
-    <t>92.780,00</t>
-  </si>
-  <si>
-    <t>110.000,00</t>
-  </si>
-  <si>
-    <t>217.682,21</t>
-  </si>
-  <si>
-    <t>2.873.935,06</t>
-  </si>
-  <si>
-    <t>1.200,00</t>
-  </si>
-  <si>
-    <t>454.990,27</t>
-  </si>
-  <si>
-    <t>9.288,85</t>
-  </si>
-  <si>
-    <t>112.930,00</t>
-  </si>
-  <si>
-    <t>2.200,00</t>
-  </si>
-  <si>
-    <t>1.230,00</t>
-  </si>
-  <si>
-    <t>30.400,00</t>
-  </si>
-  <si>
-    <t>4.500,00</t>
-  </si>
-  <si>
-    <t>16.714,54</t>
-  </si>
-  <si>
-    <t>321.201,50</t>
-  </si>
-  <si>
-    <t>2.268,00</t>
+    <t>36550.00</t>
+  </si>
+  <si>
+    <t>4800.00</t>
+  </si>
+  <si>
+    <t>33740.00</t>
+  </si>
+  <si>
+    <t>112000.00</t>
+  </si>
+  <si>
+    <t>686309.00</t>
+  </si>
+  <si>
+    <t>109000.00</t>
+  </si>
+  <si>
+    <t>12800.00</t>
+  </si>
+  <si>
+    <t>2049.00</t>
+  </si>
+  <si>
+    <t>210733.60</t>
+  </si>
+  <si>
+    <t>120766.57</t>
+  </si>
+  <si>
+    <t>6145.11</t>
+  </si>
+  <si>
+    <t>530.00</t>
+  </si>
+  <si>
+    <t>350.00</t>
+  </si>
+  <si>
+    <t>222586.40</t>
+  </si>
+  <si>
+    <t>98508.39</t>
+  </si>
+  <si>
+    <t>15480.00</t>
+  </si>
+  <si>
+    <t>1624.00</t>
+  </si>
+  <si>
+    <t>2552.00</t>
+  </si>
+  <si>
+    <t>16307.02</t>
+  </si>
+  <si>
+    <t>10959.73</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>33020.00</t>
+  </si>
+  <si>
+    <t>800.00</t>
+  </si>
+  <si>
+    <t>3060.00</t>
+  </si>
+  <si>
+    <t>136871.49</t>
+  </si>
+  <si>
+    <t>329.40</t>
+  </si>
+  <si>
+    <t>1080.00</t>
+  </si>
+  <si>
+    <t>25063.49</t>
+  </si>
+  <si>
+    <t>328.83</t>
+  </si>
+  <si>
+    <t>2365.00</t>
+  </si>
+  <si>
+    <t>2175.54</t>
+  </si>
+  <si>
+    <t>834.00</t>
+  </si>
+  <si>
+    <t>1320.22</t>
+  </si>
+  <si>
+    <t>840.00</t>
+  </si>
+  <si>
+    <t>5533.98</t>
+  </si>
+  <si>
+    <t>132.06</t>
+  </si>
+  <si>
+    <t>7661.40</t>
+  </si>
+  <si>
+    <t>1055.59</t>
+  </si>
+  <si>
+    <t>18646.00</t>
+  </si>
+  <si>
+    <t>16012.51</t>
+  </si>
+  <si>
+    <t>25203.99</t>
+  </si>
+  <si>
+    <t>10715.99</t>
+  </si>
+  <si>
+    <t>685.00</t>
+  </si>
+  <si>
+    <t>194.10</t>
+  </si>
+  <si>
+    <t>256.50</t>
+  </si>
+  <si>
+    <t>1229.28</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>483.91</t>
+  </si>
+  <si>
+    <t>138.50</t>
+  </si>
+  <si>
+    <t>220.00</t>
+  </si>
+  <si>
+    <t>144148.04</t>
+  </si>
+  <si>
+    <t>2400.00</t>
+  </si>
+  <si>
+    <t>8461.00</t>
+  </si>
+  <si>
+    <t>750.00</t>
+  </si>
+  <si>
+    <t>455.40</t>
+  </si>
+  <si>
+    <t>506.31</t>
+  </si>
+  <si>
+    <t>5437.89</t>
+  </si>
+  <si>
+    <t>2090.74</t>
+  </si>
+  <si>
+    <t>909.65</t>
+  </si>
+  <si>
+    <t>2856.00</t>
+  </si>
+  <si>
+    <t>2215.00</t>
+  </si>
+  <si>
+    <t>5348.00</t>
+  </si>
+  <si>
+    <t>15400.00</t>
+  </si>
+  <si>
+    <t>48000.00</t>
+  </si>
+  <si>
+    <t>16130.00</t>
+  </si>
+  <si>
+    <t>52468.00</t>
+  </si>
+  <si>
+    <t>1871.40</t>
+  </si>
+  <si>
+    <t>4075.00</t>
+  </si>
+  <si>
+    <t>4642.00</t>
+  </si>
+  <si>
+    <t>1208.62</t>
+  </si>
+  <si>
+    <t>4408.30</t>
+  </si>
+  <si>
+    <t>2387.06</t>
+  </si>
+  <si>
+    <t>128.00</t>
+  </si>
+  <si>
+    <t>15467.00</t>
+  </si>
+  <si>
+    <t>281016.60</t>
+  </si>
+  <si>
+    <t>9740.64</t>
+  </si>
+  <si>
+    <t>850.00</t>
+  </si>
+  <si>
+    <t>4000.00</t>
+  </si>
+  <si>
+    <t>600.00</t>
+  </si>
+  <si>
+    <t>87900.00</t>
+  </si>
+  <si>
+    <t>11700.00</t>
+  </si>
+  <si>
+    <t>400.00</t>
+  </si>
+  <si>
+    <t>1092.00</t>
+  </si>
+  <si>
+    <t>10680.00</t>
+  </si>
+  <si>
+    <t>13296.00</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>44310.00</t>
+  </si>
+  <si>
+    <t>24340.00</t>
+  </si>
+  <si>
+    <t>3000.00</t>
+  </si>
+  <si>
+    <t>7500.00</t>
+  </si>
+  <si>
+    <t>5590.00</t>
+  </si>
+  <si>
+    <t>1067.00</t>
+  </si>
+  <si>
+    <t>12768.00</t>
+  </si>
+  <si>
+    <t>1400.00</t>
+  </si>
+  <si>
+    <t>278.00</t>
+  </si>
+  <si>
+    <t>375.00</t>
+  </si>
+  <si>
+    <t>9393.00</t>
+  </si>
+  <si>
+    <t>1300.00</t>
+  </si>
+  <si>
+    <t>7020.00</t>
+  </si>
+  <si>
+    <t>1124.28</t>
+  </si>
+  <si>
+    <t>391178.31</t>
+  </si>
+  <si>
+    <t>56835.34</t>
+  </si>
+  <si>
+    <t>40912.00</t>
+  </si>
+  <si>
+    <t>5131.90</t>
+  </si>
+  <si>
+    <t>17277.75</t>
+  </si>
+  <si>
+    <t>2160.00</t>
+  </si>
+  <si>
+    <t>7940.00</t>
+  </si>
+  <si>
+    <t>1489.00</t>
+  </si>
+  <si>
+    <t>680.00</t>
+  </si>
+  <si>
+    <t>8628.50</t>
+  </si>
+  <si>
+    <t>1159.00</t>
+  </si>
+  <si>
+    <t>785.00</t>
+  </si>
+  <si>
+    <t>5281.00</t>
+  </si>
+  <si>
+    <t>31989.94</t>
+  </si>
+  <si>
+    <t>3270.50</t>
+  </si>
+  <si>
+    <t>560.00</t>
+  </si>
+  <si>
+    <t>5546.00</t>
+  </si>
+  <si>
+    <t>480.00</t>
+  </si>
+  <si>
+    <t>5220.00</t>
+  </si>
+  <si>
+    <t>20337.00</t>
+  </si>
+  <si>
+    <t>917.00</t>
+  </si>
+  <si>
+    <t>486.00</t>
+  </si>
+  <si>
+    <t>98.45</t>
+  </si>
+  <si>
+    <t>2650.00</t>
+  </si>
+  <si>
+    <t>6178.98</t>
+  </si>
+  <si>
+    <t>89000.00</t>
+  </si>
+  <si>
+    <t>25200.00</t>
+  </si>
+  <si>
+    <t>8600.00</t>
+  </si>
+  <si>
+    <t>130000.00</t>
+  </si>
+  <si>
+    <t>8500.00</t>
+  </si>
+  <si>
+    <t>1950.00</t>
+  </si>
+  <si>
+    <t>9000.00</t>
+  </si>
+  <si>
+    <t>9500.00</t>
+  </si>
+  <si>
+    <t>614477.00</t>
+  </si>
+  <si>
+    <t>11600.00</t>
+  </si>
+  <si>
+    <t>313.00</t>
+  </si>
+  <si>
+    <t>9.00</t>
+  </si>
+  <si>
+    <t>465525.48</t>
+  </si>
+  <si>
+    <t>101776.96</t>
+  </si>
+  <si>
+    <t>138342.52</t>
+  </si>
+  <si>
+    <t>2300.00</t>
+  </si>
+  <si>
+    <t>1500.00</t>
+  </si>
+  <si>
+    <t>3146.00</t>
+  </si>
+  <si>
+    <t>1800.00</t>
+  </si>
+  <si>
+    <t>1600.00</t>
+  </si>
+  <si>
+    <t>3600.00</t>
+  </si>
+  <si>
+    <t>5665.29</t>
+  </si>
+  <si>
+    <t>5540.00</t>
+  </si>
+  <si>
+    <t>2554.00</t>
+  </si>
+  <si>
+    <t>6140.00</t>
+  </si>
+  <si>
+    <t>96000.00</t>
+  </si>
+  <si>
+    <t>11500.00</t>
+  </si>
+  <si>
+    <t>5070.00</t>
+  </si>
+  <si>
+    <t>8667.50</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>360.00</t>
+  </si>
+  <si>
+    <t>2787.80</t>
+  </si>
+  <si>
+    <t>9980.00</t>
+  </si>
+  <si>
+    <t>5950.00</t>
+  </si>
+  <si>
+    <t>3322.95</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>4539.54</t>
+  </si>
+  <si>
+    <t>9848.80</t>
+  </si>
+  <si>
+    <t>3885.57</t>
+  </si>
+  <si>
+    <t>780.00</t>
+  </si>
+  <si>
+    <t>8447.16</t>
+  </si>
+  <si>
+    <t>328.00</t>
+  </si>
+  <si>
+    <t>225.15</t>
+  </si>
+  <si>
+    <t>1977.63</t>
+  </si>
+  <si>
+    <t>13201.17</t>
+  </si>
+  <si>
+    <t>123.60</t>
+  </si>
+  <si>
+    <t>354.00</t>
+  </si>
+  <si>
+    <t>9380.50</t>
+  </si>
+  <si>
+    <t>13806.00</t>
+  </si>
+  <si>
+    <t>3186.30</t>
+  </si>
+  <si>
+    <t>1467.00</t>
+  </si>
+  <si>
+    <t>176.80</t>
+  </si>
+  <si>
+    <t>34140.17</t>
+  </si>
+  <si>
+    <t>19210.00</t>
+  </si>
+  <si>
+    <t>6000.00</t>
+  </si>
+  <si>
+    <t>1007.71</t>
+  </si>
+  <si>
+    <t>20300.00</t>
+  </si>
+  <si>
+    <t>4820.00</t>
+  </si>
+  <si>
+    <t>198000.00</t>
+  </si>
+  <si>
+    <t>118000.00</t>
+  </si>
+  <si>
+    <t>203500.00</t>
+  </si>
+  <si>
+    <t>138780.00</t>
+  </si>
+  <si>
+    <t>260606.00</t>
+  </si>
+  <si>
+    <t>32500.00</t>
+  </si>
+  <si>
+    <t>27000.00</t>
+  </si>
+  <si>
+    <t>235620.00</t>
+  </si>
+  <si>
+    <t>377044.00</t>
+  </si>
+  <si>
+    <t>220000.00</t>
+  </si>
+  <si>
+    <t>52000.00</t>
+  </si>
+  <si>
+    <t>57700.00</t>
+  </si>
+  <si>
+    <t>92780.00</t>
+  </si>
+  <si>
+    <t>110000.00</t>
+  </si>
+  <si>
+    <t>217682.21</t>
+  </si>
+  <si>
+    <t>2873935.06</t>
+  </si>
+  <si>
+    <t>1200.00</t>
+  </si>
+  <si>
+    <t>454990.27</t>
+  </si>
+  <si>
+    <t>9288.85</t>
+  </si>
+  <si>
+    <t>112930.00</t>
+  </si>
+  <si>
+    <t>2200.00</t>
+  </si>
+  <si>
+    <t>1230.00</t>
+  </si>
+  <si>
+    <t>30400.00</t>
+  </si>
+  <si>
+    <t>4500.00</t>
+  </si>
+  <si>
+    <t>16714.54</t>
+  </si>
+  <si>
+    <t>321201.50</t>
+  </si>
+  <si>
+    <t>2268.00</t>
   </si>
 </sst>
 </file>
